--- a/biology/Médecine/Dinitrophénol_(maladie_professionnelle)/Dinitrophénol_(maladie_professionnelle).xlsx
+++ b/biology/Médecine/Dinitrophénol_(maladie_professionnelle)/Dinitrophénol_(maladie_professionnelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les intoxications aux dérivés nitrés du phénol sont reconnues comme maladie professionnelle en France sous certaines conditions. Sont concernés le dinitrophénol et le pentachlorophénol notamment.
 Cet article relève du domaine de la législation sur la protection sociale et a un caractère davantage  juridique que médical.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Régime général
-Régime agricole
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -526,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,20 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dinitrophénol</t>
+          <t>Législation en France</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C6H4N2O5, est un poison du métabolisme cellulaire. Il découple la phosphorylation oxydative en transportant les protons à travers la membrane mitochondriale, ce qui conduit à une augmentation rapide de la consommation d’énergie sans formation d’ATP.
-Usages industriels
-Le Dinitrophénol est utilisé commercialement principalement dans la recherche scientifique et l'industrie manufacturière. Il a été utilisé à une époque pour fabriquer des colorants, d'autres produits utilisés en chimie organique et des produits de traitement des bois. Il a également été utilisé pour fabriquer des produits pour développer les photographies, des explosifs et des pesticides.
-Action pharmacologique
-Dans les cellules vivantes, le dinitrophénol agit comme un transporteur de protons (ionophores), un agent qui peut transporter les protons (ions hydrogène) à travers les membranes biologiques. Il contrarie le gradient des protons dans les mitochondries et les membranes des chloroplastes  et provoque l'effondrement du gradient électrochimique que la cellule utilise pour produire l’énergie chimique de la plupart des molécules d’ATP. Au lieu de produire de l'ATP, l'énergie du gradient de protons est perdue en chaleur. Les cellules compensent la baisse du rendement de l'ATP en oxydant davantage les réserves stockées sous forme de glucides et de graisses.
-Utilisation comme traitement amaigrissant
-Le Dinitrophénom a été largement utilisée dans Les années 1930 dans les pilules amaigrissantes après que Cutting et Tainter de l'Université de Stanford aient réalisés leur première étude rapport sur la capacité des drogues d'accroître considérablement leur activité métabolique. Le Dinitrophénol agit comme transporteur de protons dans la membrane mitochondriale, en inhibant la phosphorylation oxydative de l'ATP et en rendant la production d'énergie moins efficace. En effet, une partie de l'énergie qui est normalement produite à partir de la respiration cellulaire est gaspillée en chaleur. Ce manque d'efficacité est proportionnel à la dose de Dinitrophénol qui est absorbée. Ainsi, lorsque la dose augmente, la production d'énergie devient moins efficace, le métabolisme est activé (davantage de matières grasses sont brûlées), afin de compenser l'inefficacité et répondre à la demande énergétique. Fait intéressant, le facteur qui limite le plus l’augmentation des doses de Dinitrophénol n'est pas le manque de production d'énergie par l'ATP, mais plutôt une hausse excessive de la température corporelle due à la chaleur produite. En conséquence, une surdose de Dinitrophénol va provoquer une fièvre fatale. Les effets secondaires dangereux et notamment les cataractes qui se sont développées ont abouti rapidement à l’interdiction du Dinitrophénol aux États-Unis dans le courant de l’année 1938. Le Dinitrophénol continue cependant à être utilisé par certains culturistes et athlètes pour perdre rapidement de la graisse corporelle. Les surdoses fatales sont rares, mais elles sont toujours signalées occasionnellement[3],[4]. En 2007, une allemande est décédée après avoir ingéré du DNP.
-Alors que le Dinitrophénol est considéré par beaucoup comme trop dangereux pour un usage humain, son mécanisme d'action reste l'objet d’étude comme approche d’un traitement potentiel de l'obésité[5]. Actuellement, la recherche est axée sur les protéine inhibitricess présentes naturellement chez l'homme.
-Phrases de risque et conseils de prudence selon l'INRS
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -565,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,32 +595,318 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dinitrophénol</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C6H4N2O5, est un poison du métabolisme cellulaire. Il découple la phosphorylation oxydative en transportant les protons à travers la membrane mitochondriale, ce qui conduit à une augmentation rapide de la consommation d’énergie sans formation d’ATP.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dinitrophénol</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Usages industriels</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dinitrophénol est utilisé commercialement principalement dans la recherche scientifique et l'industrie manufacturière. Il a été utilisé à une époque pour fabriquer des colorants, d'autres produits utilisés en chimie organique et des produits de traitement des bois. Il a également été utilisé pour fabriquer des produits pour développer les photographies, des explosifs et des pesticides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dinitrophénol</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Action pharmacologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les cellules vivantes, le dinitrophénol agit comme un transporteur de protons (ionophores), un agent qui peut transporter les protons (ions hydrogène) à travers les membranes biologiques. Il contrarie le gradient des protons dans les mitochondries et les membranes des chloroplastes  et provoque l'effondrement du gradient électrochimique que la cellule utilise pour produire l’énergie chimique de la plupart des molécules d’ATP. Au lieu de produire de l'ATP, l'énergie du gradient de protons est perdue en chaleur. Les cellules compensent la baisse du rendement de l'ATP en oxydant davantage les réserves stockées sous forme de glucides et de graisses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dinitrophénol</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Utilisation comme traitement amaigrissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dinitrophénom a été largement utilisée dans Les années 1930 dans les pilules amaigrissantes après que Cutting et Tainter de l'Université de Stanford aient réalisés leur première étude rapport sur la capacité des drogues d'accroître considérablement leur activité métabolique. Le Dinitrophénol agit comme transporteur de protons dans la membrane mitochondriale, en inhibant la phosphorylation oxydative de l'ATP et en rendant la production d'énergie moins efficace. En effet, une partie de l'énergie qui est normalement produite à partir de la respiration cellulaire est gaspillée en chaleur. Ce manque d'efficacité est proportionnel à la dose de Dinitrophénol qui est absorbée. Ainsi, lorsque la dose augmente, la production d'énergie devient moins efficace, le métabolisme est activé (davantage de matières grasses sont brûlées), afin de compenser l'inefficacité et répondre à la demande énergétique. Fait intéressant, le facteur qui limite le plus l’augmentation des doses de Dinitrophénol n'est pas le manque de production d'énergie par l'ATP, mais plutôt une hausse excessive de la température corporelle due à la chaleur produite. En conséquence, une surdose de Dinitrophénol va provoquer une fièvre fatale. Les effets secondaires dangereux et notamment les cataractes qui se sont développées ont abouti rapidement à l’interdiction du Dinitrophénol aux États-Unis dans le courant de l’année 1938. Le Dinitrophénol continue cependant à être utilisé par certains culturistes et athlètes pour perdre rapidement de la graisse corporelle. Les surdoses fatales sont rares, mais elles sont toujours signalées occasionnellement,. En 2007, une allemande est décédée après avoir ingéré du DNP.
+Alors que le Dinitrophénol est considéré par beaucoup comme trop dangereux pour un usage humain, son mécanisme d'action reste l'objet d’étude comme approche d’un traitement potentiel de l'obésité. Actuellement, la recherche est axée sur les protéine inhibitricess présentes naturellement chez l'homme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dinitrophénol</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Phrases de risque et conseils de prudence selon l'INRS</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Pentachlorophénol</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Utilisation
-Il s'agit d'un fongicide qui a prouvé son efficacité pour le traitement du bois et le blanchiment de la pâte à papier(il atténue le noircissement provoqué par les champignons).
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il s'agit d'un fongicide qui a prouvé son efficacité pour le traitement du bois et le blanchiment de la pâte à papier(il atténue le noircissement provoqué par les champignons).
 En raison de la nocivité du produit pour l'homme et l'environnement, les usages de ces composés sont sévèrement réglementés. En France le décret du 7 juillet 1994 interdit la mise sur le marché de produit en contenant plus de 0,1 %, toutefois des dérogations pour notamment:
 Pour la préservation des bois destinés à certains usages (sont exclus les bois servant à la fabrication de meubles ou d'emballages alimentaires)
 Pour l'imprégnation de fibres et textiles non destinées à l'habillement ou l'ameublement.
 Comme agent de synthèse ou de transformation dans des procédés industriels.
-Pour le traitement in situ des bâtiments d'intérêt historique et culturel (autorisé au cas par cas).
-Toxicocinétique
-La pénétration dans l'organisme est à la fois respiratoire et cutanée (la voie cutanée serait prédominante)
+Pour le traitement in situ des bâtiments d'intérêt historique et culturel (autorisé au cas par cas).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pentachlorophénol</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Toxicocinétique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pénétration dans l'organisme est à la fois respiratoire et cutanée (la voie cutanée serait prédominante)
 La VME a été fixée à 0,5 mg/m3
-Toxicité pour l'homme
-Les aérosols sont irritants pour les yeux, le nez et les voies aériennes supérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pentachlorophénol</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Toxicité pour l'homme</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Les aérosols sont irritants pour les yeux, le nez et les voies aériennes supérieures.
 Les solutions ont une action irritantes sur la peau, elles peuvent provoquer des brûlures allant jusqu'à des phlyctènes.
 Des cas d'intoxication graves pouvant aller jusqu'à une issue mortelle ont été observés.
 Apparition de céphalées, sueurs, hyperthermie, tachycardie, dyspnée.
 Signes d'irritation des muqueuse, atteinte hépatique et rénale.
-Dans les cas sévères coma hyperthermique et convulsif avec cytolyse hépatique.
-Phrases de risque et conseils de prudence selon l'INRS
-</t>
-        </is>
-      </c>
+Dans les cas sévères coma hyperthermique et convulsif avec cytolyse hépatique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dinitrophénol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinitroph%C3%A9nol_(maladie_professionnelle)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pentachlorophénol</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Phrases de risque et conseils de prudence selon l'INRS</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
